--- a/data-analysis/manual_analysis/failed_pins/ma_sample_failed_pins.xlsx
+++ b/data-analysis/manual_analysis/failed_pins/ma_sample_failed_pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BenRombaut/Desktop/Queens/LOG6307/project/data-analysis/manual_analysis/failed_pins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEBB4C3-BDE1-D345-B24F-EC6B22063308}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39536D32-5810-344B-9D56-13A2EBFACB75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25380" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13280,8 +13280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="93" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13322,7 +13322,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>390203749</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>410052359</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>367441775</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>296191829</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>390325270</v>
       </c>
@@ -13425,7 +13425,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>188854044</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>453021392</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>361835395</v>
       </c>
@@ -13529,7 +13529,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>413972168</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>280715676</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>450447369</v>
       </c>
@@ -13659,7 +13659,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>432823433</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>459357419</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>605311411</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>459852854</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>279955429</v>
       </c>
@@ -13789,7 +13789,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>427312552</v>
       </c>
@@ -13841,7 +13841,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>462358989</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>368900834</v>
       </c>
@@ -13971,7 +13971,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>543005662</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>359677678</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>467733477</v>
       </c>
@@ -14072,7 +14072,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>444887034</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>360212591</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>395008941</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>278970333</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>389679310</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>400192027</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>267571574</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>574166459</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>380888723</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>410285439</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>482323757</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>238936019</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>464849155</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>424338264</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>590845858</v>
       </c>
@@ -14730,7 +14730,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>431350898</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>614969004</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>454947593</v>
       </c>
@@ -14808,7 +14808,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>427311885</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>378564822</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>325791693</v>
       </c>
@@ -14886,7 +14886,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>480350738</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>430545973</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>555768461</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>525040038</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>278609603</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>478249256</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>446044567</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>351628756</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>191604127</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>558125566</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>425409561</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>405926370</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>475632033</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>300469003</v>
       </c>
@@ -15611,7 +15611,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>573063608</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>389274874</v>
       </c>
@@ -15793,7 +15793,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>444344772</v>
       </c>
@@ -15819,7 +15819,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>412998636</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>493570575</v>
       </c>
@@ -16151,7 +16151,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>306983557</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>303556291</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>419033195</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>430206981</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>394577309</v>
       </c>
@@ -16463,7 +16463,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>267966125</v>
       </c>
@@ -16538,7 +16538,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>413697260</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>413696365</v>
       </c>
@@ -16590,7 +16590,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>301180995</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>360750549</v>
       </c>
@@ -16642,7 +16642,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>521769837</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>355275944</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>408567050</v>
       </c>
@@ -16746,7 +16746,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>291006560</v>
       </c>
@@ -16812,7 +16812,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>524038542</v>
       </c>
@@ -16838,7 +16838,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>456979817</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>326897685</v>
       </c>
@@ -16890,7 +16890,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>256497751</v>
       </c>
@@ -16994,7 +16994,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>467122713</v>
       </c>
@@ -17020,7 +17020,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>449255384</v>
       </c>
@@ -17072,7 +17072,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>332257681</v>
       </c>
@@ -17098,7 +17098,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>275077251</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>351923746</v>
       </c>
@@ -17150,7 +17150,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>386678369</v>
       </c>
@@ -17202,7 +17202,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>395363629</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>406773476</v>
       </c>
@@ -17254,7 +17254,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>325953152</v>
       </c>
@@ -17332,7 +17332,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>315291217</v>
       </c>
@@ -17358,7 +17358,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>459446078</v>
       </c>
@@ -17410,7 +17410,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>512900073</v>
       </c>
@@ -17436,7 +17436,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>361914103</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>378027887</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>466015546</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>510814373</v>
       </c>
@@ -17540,7 +17540,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>488182828</v>
       </c>
@@ -17592,7 +17592,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>519292014</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>302612310</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>516935359</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>345044329</v>
       </c>
@@ -17748,7 +17748,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>407977999</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>281222186</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>445978202</v>
       </c>
@@ -17901,7 +17901,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>256492665</v>
       </c>
@@ -17927,7 +17927,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>465432317</v>
       </c>
@@ -17953,7 +17953,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>477332654</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>478289243</v>
       </c>
@@ -18057,7 +18057,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>391504262</v>
       </c>
@@ -18083,7 +18083,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>511757481</v>
       </c>
@@ -18109,7 +18109,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>407539600</v>
       </c>
@@ -18135,7 +18135,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>559227343</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>290350775</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>272638068</v>
       </c>
@@ -18239,7 +18239,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>421185823</v>
       </c>
@@ -18265,7 +18265,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>296806149</v>
       </c>
@@ -18285,7 +18285,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>290132552</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>450239429</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>430010879</v>
       </c>
@@ -18432,7 +18432,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>323441324</v>
       </c>
@@ -18452,7 +18452,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>323441925</v>
       </c>
@@ -18530,7 +18530,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>451754970</v>
       </c>
@@ -18556,7 +18556,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>415586537</v>
       </c>
@@ -18582,7 +18582,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>340239385</v>
       </c>
@@ -18608,7 +18608,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>462270587</v>
       </c>
@@ -18660,7 +18660,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>306065230</v>
       </c>
@@ -18712,7 +18712,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>367441445</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>430010936</v>
       </c>
@@ -18816,7 +18816,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>403794440</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>265112740</v>
       </c>
@@ -18885,7 +18885,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>429648499</v>
       </c>
@@ -18963,7 +18963,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>573103721</v>
       </c>
@@ -19015,7 +19015,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>394798307</v>
       </c>
@@ -19041,7 +19041,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>361463091</v>
       </c>
@@ -19061,7 +19061,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>378022265</v>
       </c>
@@ -19087,7 +19087,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>626207053</v>
       </c>
@@ -19165,7 +19165,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>335028764</v>
       </c>
@@ -19191,7 +19191,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>333363152</v>
       </c>
@@ -19243,7 +19243,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>454538373</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>250817942</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>475839700</v>
       </c>
@@ -19419,7 +19419,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>237134004</v>
       </c>
@@ -19445,7 +19445,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>393460353</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>386953062</v>
       </c>
@@ -19572,7 +19572,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>286544163</v>
       </c>
@@ -19624,7 +19624,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>280456238</v>
       </c>
@@ -19673,7 +19673,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>361255097</v>
       </c>
@@ -19699,7 +19699,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>451756095</v>
       </c>
@@ -19745,7 +19745,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>493998923</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>512866935</v>
       </c>
@@ -19797,7 +19797,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>399584426</v>
       </c>
@@ -19901,7 +19901,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>298138792</v>
       </c>
@@ -19979,7 +19979,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>617014639</v>
       </c>
@@ -20031,7 +20031,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>414923767</v>
       </c>
@@ -20057,7 +20057,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>349671148</v>
       </c>
@@ -20083,7 +20083,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>469168393</v>
       </c>
@@ -20109,7 +20109,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>395259170</v>
       </c>
@@ -20135,7 +20135,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>521285009</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>361611333</v>
       </c>
@@ -20291,7 +20291,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>337401487</v>
       </c>
@@ -20317,7 +20317,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>359687650</v>
       </c>
@@ -20343,7 +20343,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="204" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>238708330</v>
       </c>
@@ -20369,7 +20369,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>622020252</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>413182927</v>
       </c>
@@ -20473,7 +20473,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>432763885</v>
       </c>
@@ -20499,7 +20499,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>539924435</v>
       </c>
@@ -20525,7 +20525,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>298371681</v>
       </c>
@@ -20577,7 +20577,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>306064955</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>289424319</v>
       </c>
@@ -20629,7 +20629,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>284417734</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>366315880</v>
       </c>
@@ -20733,7 +20733,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>366167273</v>
       </c>
@@ -20759,7 +20759,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>262928574</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>386695156</v>
       </c>
@@ -20825,7 +20825,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>536877483</v>
       </c>
@@ -20929,7 +20929,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>361253162</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>276805959</v>
       </c>
@@ -21033,7 +21033,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>400476893</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>537406765</v>
       </c>
@@ -21111,7 +21111,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>258952891</v>
       </c>
@@ -21215,7 +21215,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>361843685</v>
       </c>
@@ -21241,7 +21241,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>472991768</v>
       </c>
@@ -21267,7 +21267,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>467742280</v>
       </c>
@@ -21293,7 +21293,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>434507912</v>
       </c>
@@ -21319,7 +21319,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>572467108</v>
       </c>
@@ -21371,7 +21371,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>607820752</v>
       </c>
@@ -21397,7 +21397,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>190085642</v>
       </c>
@@ -21449,7 +21449,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>353489391</v>
       </c>
@@ -21475,7 +21475,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>420757703</v>
       </c>
@@ -21553,7 +21553,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>477434010</v>
       </c>
@@ -21579,7 +21579,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>436344925</v>
       </c>
@@ -21657,7 +21657,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>420419096</v>
       </c>
@@ -21683,7 +21683,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>358888970</v>
       </c>
@@ -21709,7 +21709,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>437824313</v>
       </c>
@@ -21735,7 +21735,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>377026011</v>
       </c>
@@ -21761,7 +21761,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>236324939</v>
       </c>
@@ -21784,7 +21784,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>531226404</v>
       </c>
@@ -21897,7 +21897,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>424340610</v>
       </c>
@@ -21975,7 +21975,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>269386414</v>
       </c>
@@ -22024,7 +22024,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>331313548</v>
       </c>
@@ -22076,7 +22076,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>539708494</v>
       </c>
@@ -22099,7 +22099,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>241569454</v>
       </c>
@@ -22122,7 +22122,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>239330017</v>
       </c>
@@ -22148,7 +22148,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>476446011</v>
       </c>
@@ -22174,7 +22174,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>550652694</v>
       </c>
@@ -22226,7 +22226,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>313515126</v>
       </c>
@@ -22249,7 +22249,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>526837601</v>
       </c>
@@ -22275,7 +22275,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>361178217</v>
       </c>
@@ -22327,7 +22327,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>391545227</v>
       </c>
@@ -22350,7 +22350,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>309832720</v>
       </c>
@@ -22373,7 +22373,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>386953793</v>
       </c>
@@ -22425,7 +22425,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>528692661</v>
       </c>
@@ -22448,7 +22448,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>410001247</v>
       </c>
@@ -22471,7 +22471,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>412440153</v>
       </c>
@@ -22494,7 +22494,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>503738378</v>
       </c>
@@ -22621,7 +22621,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>464388162</v>
       </c>
@@ -22670,7 +22670,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>459324071</v>
       </c>
@@ -22693,7 +22693,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>470743733</v>
       </c>
@@ -22716,7 +22716,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>486355841</v>
       </c>
@@ -22739,7 +22739,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>423961281</v>
       </c>
@@ -22762,7 +22762,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>287550226</v>
       </c>
@@ -22785,7 +22785,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="323" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>342947950</v>
       </c>
@@ -22811,7 +22811,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>600462403</v>
       </c>
@@ -22837,7 +22837,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>440981885</v>
       </c>
@@ -22860,7 +22860,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>524123855</v>
       </c>
@@ -22941,7 +22941,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>376620423</v>
       </c>
@@ -22993,7 +22993,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>387889597</v>
       </c>
@@ -23016,7 +23016,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>241108795</v>
       </c>
@@ -23065,7 +23065,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>336220545</v>
       </c>
@@ -23140,7 +23140,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>359683659</v>
       </c>
@@ -23163,7 +23163,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>240748173</v>
       </c>
@@ -23186,7 +23186,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>508683379</v>
       </c>
@@ -23212,7 +23212,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>267421127</v>
       </c>
@@ -23235,7 +23235,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>518010417</v>
       </c>
@@ -23258,7 +23258,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>395284736</v>
       </c>
@@ -23281,7 +23281,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>530211649</v>
       </c>
@@ -23362,7 +23362,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>249506121</v>
       </c>
@@ -23385,7 +23385,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>238603357</v>
       </c>
@@ -23437,7 +23437,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>552674437</v>
       </c>
@@ -23489,7 +23489,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>528652479</v>
       </c>
@@ -23512,7 +23512,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>480323465</v>
       </c>
@@ -23561,7 +23561,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>363727775</v>
       </c>
@@ -23587,7 +23587,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>289342759</v>
       </c>
@@ -23610,7 +23610,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405922338</v>
       </c>
@@ -23633,7 +23633,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>617080781</v>
       </c>
@@ -23656,7 +23656,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>339966305</v>
       </c>
@@ -23705,7 +23705,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>283984188</v>
       </c>
@@ -23728,7 +23728,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>297140570</v>
       </c>
@@ -23751,7 +23751,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>587948906</v>
       </c>
@@ -23777,7 +23777,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="404" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>459852810</v>
       </c>
@@ -23803,7 +23803,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="289" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>406482286</v>
       </c>
@@ -23907,7 +23907,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="238" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>427310870</v>
       </c>
@@ -23962,7 +23962,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>503132347</v>
       </c>
@@ -23985,7 +23985,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>588711433</v>
       </c>
@@ -24040,7 +24040,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>443197886</v>
       </c>
@@ -24121,7 +24121,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>534943119</v>
       </c>
@@ -24144,7 +24144,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>373635792</v>
       </c>
@@ -24167,7 +24167,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426768284</v>
       </c>
@@ -24248,7 +24248,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>442935873</v>
       </c>
@@ -24271,7 +24271,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>395462884</v>
       </c>
@@ -24320,7 +24320,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>378021629</v>
       </c>
@@ -24372,7 +24372,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>411755270</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>272658327</v>
       </c>
@@ -24580,7 +24580,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>476435929</v>
       </c>
@@ -24632,7 +24632,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>259685905</v>
       </c>
@@ -24655,7 +24655,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>485678236</v>
       </c>
@@ -24681,7 +24681,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>498829387</v>
       </c>
@@ -24707,7 +24707,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>242572377</v>
       </c>
@@ -24730,7 +24730,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>187203965</v>
       </c>
@@ -24753,7 +24753,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>390229573</v>
       </c>
@@ -24886,7 +24886,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>406709447</v>
       </c>
@@ -24938,7 +24938,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>427313961</v>
       </c>
@@ -24961,7 +24961,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>390642889</v>
       </c>
@@ -24987,7 +24987,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>395371002</v>
       </c>
@@ -25013,7 +25013,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>186989496</v>
       </c>
@@ -25036,7 +25036,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>444405309</v>
       </c>
@@ -25059,7 +25059,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>415017850</v>
       </c>
@@ -25169,7 +25169,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>434007219</v>
       </c>
@@ -25221,7 +25221,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>366635206</v>
       </c>
@@ -25244,7 +25244,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>257587604</v>
       </c>
@@ -25296,7 +25296,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>441809967</v>
       </c>
@@ -25322,7 +25322,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>272806446</v>
       </c>
@@ -25345,7 +25345,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>399887002</v>
       </c>
@@ -25368,7 +25368,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>283182023</v>
       </c>
@@ -25417,7 +25417,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>292042839</v>
       </c>
@@ -25492,7 +25492,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>612471335</v>
       </c>
@@ -25518,7 +25518,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>577575839</v>
       </c>
@@ -25541,7 +25541,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>351840533</v>
       </c>
@@ -25590,7 +25590,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>418147501</v>
       </c>
@@ -25613,7 +25613,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>280667778</v>
       </c>
@@ -25636,7 +25636,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>477170823</v>
       </c>
@@ -25659,7 +25659,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="306" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:9" ht="221" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>407843753</v>
       </c>
@@ -25737,7 +25737,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="238" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>361208483</v>
       </c>
@@ -25792,7 +25792,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>266813839</v>
       </c>
@@ -25815,7 +25815,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>464014380</v>
       </c>
@@ -25864,7 +25864,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>527897157</v>
       </c>
@@ -25945,7 +25945,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>500444312</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="306" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" ht="221" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>584686099</v>
       </c>
@@ -25994,7 +25994,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>459854798</v>
       </c>
@@ -26020,7 +26020,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="372" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>325952974</v>
       </c>
@@ -26046,7 +26046,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8" ht="255" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>344594859</v>
       </c>
@@ -26072,7 +26072,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>502698355</v>
       </c>
@@ -26095,7 +26095,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>430010811</v>
       </c>
@@ -26144,7 +26144,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>384913869</v>
       </c>
@@ -26193,7 +26193,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="255" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>367938478</v>
       </c>
@@ -26245,7 +26245,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>381980218</v>
       </c>
@@ -26294,7 +26294,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>299058101</v>
       </c>
@@ -26317,7 +26317,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>553814117</v>
       </c>
@@ -26340,7 +26340,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>478917804</v>
       </c>
@@ -26467,7 +26467,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>417383110</v>
       </c>
@@ -26516,7 +26516,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>362084925</v>
       </c>
@@ -26591,7 +26591,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="306" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>366635593</v>
       </c>
@@ -26643,7 +26643,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>471879368</v>
       </c>
@@ -26695,7 +26695,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="528" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>448251220</v>
       </c>
@@ -26744,7 +26744,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>431429446</v>
       </c>
@@ -26767,7 +26767,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="289" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>363375267</v>
       </c>
@@ -26793,7 +26793,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>263090175</v>
       </c>
@@ -26842,7 +26842,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="534" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>290373491</v>
       </c>
@@ -26894,7 +26894,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="536" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:9" ht="323" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>394782255</v>
       </c>
@@ -26946,7 +26946,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="538" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>555880847</v>
       </c>
@@ -26969,7 +26969,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="539" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>360712274</v>
       </c>
@@ -26992,7 +26992,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="540" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>418148325</v>
       </c>
@@ -27041,7 +27041,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>491761521</v>
       </c>
@@ -27064,7 +27064,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>372744962</v>
       </c>
@@ -27087,7 +27087,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="544" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>278058759</v>
       </c>
@@ -27110,7 +27110,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="545" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>443168931</v>
       </c>
@@ -27136,7 +27136,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="546" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>487907644</v>
       </c>
@@ -27185,7 +27185,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="548" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>285226515</v>
       </c>
@@ -27237,7 +27237,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="550" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>483618455</v>
       </c>
@@ -27260,7 +27260,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="551" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>256558412</v>
       </c>
@@ -27309,7 +27309,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="553" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>550576587</v>
       </c>
@@ -27413,7 +27413,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="557" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>239311941</v>
       </c>
@@ -27439,7 +27439,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="558" spans="1:9" ht="255" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>606990243</v>
       </c>
@@ -27465,7 +27465,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="559" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>407161342</v>
       </c>
@@ -27488,7 +27488,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="560" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>583596856</v>
       </c>
@@ -27511,7 +27511,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="561" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>282506689</v>
       </c>
@@ -27534,7 +27534,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="562" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>199913559</v>
       </c>
@@ -27586,7 +27586,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>612217231</v>
       </c>
@@ -27716,7 +27716,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="569" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>441160338</v>
       </c>
@@ -27794,7 +27794,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="572" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>379357511</v>
       </c>
@@ -27872,7 +27872,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="575" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>470113147</v>
       </c>
@@ -27898,7 +27898,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="576" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>372681129</v>
       </c>
@@ -27924,7 +27924,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="577" spans="1:9" ht="255" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>558669826</v>
       </c>
@@ -28080,7 +28080,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="583" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>427318904</v>
       </c>
@@ -28132,7 +28132,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="585" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>418133337</v>
       </c>
@@ -28155,7 +28155,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="586" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>427919710</v>
       </c>
@@ -28236,7 +28236,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="589" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>466014083</v>
       </c>
@@ -28424,7 +28424,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="596" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>285577158</v>
       </c>
@@ -28476,7 +28476,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="598" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>347628428</v>
       </c>
@@ -28499,7 +28499,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="599" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>409597781</v>
       </c>
@@ -28525,7 +28525,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="600" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>270190443</v>
       </c>
@@ -28548,7 +28548,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="601" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>422265759</v>
       </c>
@@ -28571,7 +28571,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="602" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>289044231</v>
       </c>
@@ -28620,7 +28620,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="604" spans="1:9" ht="404" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:9" ht="289" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>439923301</v>
       </c>
@@ -28646,7 +28646,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="605" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>339911594</v>
       </c>
@@ -28747,7 +28747,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="609" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>364583730</v>
       </c>
@@ -28770,7 +28770,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="610" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>391897810</v>
       </c>
@@ -28793,7 +28793,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="611" spans="1:9" ht="404" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:9" ht="238" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>509334727</v>
       </c>
@@ -28819,7 +28819,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="612" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>533536754</v>
       </c>
@@ -28923,7 +28923,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="616" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>369235404</v>
       </c>
@@ -28949,7 +28949,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="617" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>251399280</v>
       </c>
@@ -28972,7 +28972,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="618" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>470035636</v>
       </c>
@@ -28989,7 +28989,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="619" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>379447301</v>
       </c>
@@ -29029,7 +29029,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="621" spans="1:9" ht="221" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>358967628</v>
       </c>
@@ -29078,7 +29078,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="623" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>235893055</v>
       </c>
@@ -29130,7 +29130,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="625" spans="1:9" ht="340" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:9" ht="221" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>367318033</v>
       </c>
@@ -29188,7 +29188,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="627" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>372744162</v>
       </c>
@@ -29214,7 +29214,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="628" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>427316108</v>
       </c>
@@ -29266,7 +29266,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="630" spans="1:9" ht="340" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:9" ht="255" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>524973653</v>
       </c>
@@ -29344,7 +29344,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="633" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>251756621</v>
       </c>
@@ -29445,7 +29445,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="637" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>291715055</v>
       </c>
@@ -29465,7 +29465,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="638" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>192245192</v>
       </c>
@@ -29511,7 +29511,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="640" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>429404015</v>
       </c>
@@ -29531,7 +29531,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="641" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>479170347</v>
       </c>
@@ -29577,7 +29577,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="643" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>322916488</v>
       </c>
@@ -29620,7 +29620,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="645" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>366678990</v>
       </c>
@@ -29663,7 +29663,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="647" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>444353237</v>
       </c>
@@ -29683,7 +29683,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="648" spans="1:9" ht="238" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>414816655</v>
       </c>
@@ -29732,7 +29732,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="650" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>188376996</v>
       </c>
@@ -29752,7 +29752,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="651" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>350838998</v>
       </c>
@@ -29772,7 +29772,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="652" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>331322325</v>
       </c>
@@ -29818,7 +29818,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="654" spans="1:9" ht="238" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:9" ht="187" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>250737710</v>
       </c>
@@ -29841,7 +29841,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="655" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>361880999</v>
       </c>
@@ -29861,7 +29861,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="656" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>194875232</v>
       </c>
@@ -29904,7 +29904,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="658" spans="1:9" ht="255" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>486772094</v>
       </c>
@@ -30290,7 +30290,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="677" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>443006297</v>
       </c>
@@ -30307,7 +30307,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="678" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>376509359</v>
       </c>
@@ -30324,7 +30324,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="679" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>311937336</v>
       </c>
@@ -30341,7 +30341,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="680" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>399857339</v>
       </c>
@@ -30358,7 +30358,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="681" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>531177220</v>
       </c>
@@ -30375,7 +30375,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="682" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>239838413</v>
       </c>
@@ -30392,7 +30392,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="683" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>469717805</v>
       </c>
@@ -30409,7 +30409,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="684" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>524544928</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="685" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>287575396</v>
       </c>
@@ -30443,7 +30443,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="686" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>250065906</v>
       </c>
@@ -30460,7 +30460,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="687" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>368795514</v>
       </c>
@@ -30477,7 +30477,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="688" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>361256599</v>
       </c>
@@ -30494,7 +30494,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="689" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>260474064</v>
       </c>
@@ -30511,7 +30511,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="690" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>369769867</v>
       </c>
@@ -30528,7 +30528,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="691" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>275074001</v>
       </c>
@@ -30545,7 +30545,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="692" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>333484898</v>
       </c>
@@ -30562,7 +30562,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="693" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>417098943</v>
       </c>
@@ -30579,7 +30579,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="694" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>302610551</v>
       </c>
@@ -30596,7 +30596,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="695" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>395512141</v>
       </c>
@@ -30613,7 +30613,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="696" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>423980708</v>
       </c>
@@ -30630,7 +30630,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="697" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>331130401</v>
       </c>
@@ -30647,7 +30647,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="698" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>524091467</v>
       </c>
@@ -30664,7 +30664,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="699" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>427318887</v>
       </c>
@@ -30681,7 +30681,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="700" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>368488804</v>
       </c>
@@ -30698,7 +30698,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="701" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>278048503</v>
       </c>
@@ -30715,7 +30715,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="702" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>445236260</v>
       </c>
@@ -30732,7 +30732,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="703" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>424338264</v>
       </c>
@@ -30749,7 +30749,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="704" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>278803935</v>
       </c>
@@ -30766,7 +30766,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="705" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>455791217</v>
       </c>
@@ -30783,7 +30783,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="706" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>562750801</v>
       </c>
@@ -30800,7 +30800,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="707" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>333363494</v>
       </c>
@@ -30817,7 +30817,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="708" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>439424523</v>
       </c>
@@ -30834,7 +30834,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="709" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>299061380</v>
       </c>
@@ -30851,7 +30851,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="710" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>286862725</v>
       </c>
@@ -30868,7 +30868,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="711" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>389098222</v>
       </c>
@@ -30885,7 +30885,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="712" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>324599263</v>
       </c>
@@ -30902,7 +30902,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="713" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>579515367</v>
       </c>
@@ -30919,7 +30919,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="714" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>420402174</v>
       </c>
@@ -30936,7 +30936,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="715" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>480323223</v>
       </c>
@@ -30953,7 +30953,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="716" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>463639976</v>
       </c>
@@ -30970,7 +30970,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="717" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>286731698</v>
       </c>
@@ -30987,7 +30987,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="718" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>385751853</v>
       </c>
@@ -31004,7 +31004,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="719" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>380036131</v>
       </c>
@@ -31021,7 +31021,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="720" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>348390347</v>
       </c>
@@ -31038,7 +31038,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="721" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>410990871</v>
       </c>
@@ -31055,7 +31055,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="722" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>541294460</v>
       </c>
@@ -31072,7 +31072,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="723" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>374342319</v>
       </c>
@@ -31089,7 +31089,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="724" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>365148696</v>
       </c>
@@ -31106,7 +31106,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="725" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>394403648</v>
       </c>
@@ -31123,7 +31123,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="726" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>442052237</v>
       </c>
@@ -31140,7 +31140,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="727" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>464923466</v>
       </c>
@@ -31157,7 +31157,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="728" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>273895435</v>
       </c>
@@ -31174,7 +31174,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="729" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>415358844</v>
       </c>
@@ -31191,7 +31191,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="730" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>322595727</v>
       </c>
@@ -31208,7 +31208,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="731" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>534457472</v>
       </c>
@@ -31225,7 +31225,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="732" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>562749892</v>
       </c>
@@ -31242,7 +31242,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="733" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>384579068</v>
       </c>
@@ -31259,7 +31259,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="734" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>520320564</v>
       </c>
@@ -31276,7 +31276,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="735" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>382902126</v>
       </c>
@@ -31293,7 +31293,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="736" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>328780091</v>
       </c>
@@ -31310,7 +31310,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="737" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>418930061</v>
       </c>
@@ -31327,7 +31327,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="738" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>557870589</v>
       </c>
@@ -31344,7 +31344,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="739" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>459852491</v>
       </c>
@@ -31361,7 +31361,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="740" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>435455141</v>
       </c>
@@ -31378,7 +31378,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="741" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>266700739</v>
       </c>
@@ -31395,7 +31395,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="742" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>369819371</v>
       </c>
@@ -31412,7 +31412,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="743" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>499344679</v>
       </c>
@@ -31429,7 +31429,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="744" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>398565911</v>
       </c>
@@ -31446,7 +31446,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="745" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>584042866</v>
       </c>
@@ -31463,7 +31463,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="746" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>558722327</v>
       </c>
@@ -31480,7 +31480,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="747" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>511127642</v>
       </c>
@@ -31497,7 +31497,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="748" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>280616741</v>
       </c>
@@ -31514,7 +31514,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="749" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>387204910</v>
       </c>
@@ -31531,7 +31531,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="750" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>239658310</v>
       </c>
@@ -31548,7 +31548,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="751" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>306261887</v>
       </c>
@@ -31565,7 +31565,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="752" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>444749070</v>
       </c>
@@ -31582,7 +31582,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="753" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>394569010</v>
       </c>
@@ -31599,7 +31599,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="754" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>422873752</v>
       </c>
@@ -31616,7 +31616,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="755" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>387106123</v>
       </c>
@@ -31633,7 +31633,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="756" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>427316493</v>
       </c>
@@ -31650,7 +31650,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="757" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>452207239</v>
       </c>
@@ -31667,7 +31667,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="758" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>537407141</v>
       </c>
@@ -31684,7 +31684,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="759" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>281229716</v>
       </c>
@@ -31701,7 +31701,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="760" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>286496415</v>
       </c>
@@ -31718,7 +31718,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="761" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>360736335</v>
       </c>
@@ -31735,7 +31735,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="762" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>197997247</v>
       </c>
@@ -31752,7 +31752,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="763" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>423229692</v>
       </c>
@@ -31769,7 +31769,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="764" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>607131469</v>
       </c>
@@ -31786,7 +31786,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="765" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>322382765</v>
       </c>
@@ -31803,7 +31803,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="766" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>346496391</v>
       </c>
@@ -31820,7 +31820,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="767" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>558788602</v>
       </c>
@@ -31837,7 +31837,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="768" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>461320693</v>
       </c>
@@ -31854,7 +31854,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="769" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>274948746</v>
       </c>
@@ -31871,7 +31871,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="770" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>436762873</v>
       </c>
@@ -31888,7 +31888,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="771" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>440963306</v>
       </c>
@@ -31905,7 +31905,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="772" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>242526440</v>
       </c>
@@ -31922,7 +31922,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="773" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>478288519</v>
       </c>
@@ -31939,7 +31939,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="774" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>414906422</v>
       </c>
@@ -31956,7 +31956,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="775" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>430008379</v>
       </c>
@@ -31973,7 +31973,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="776" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>291004473</v>
       </c>
@@ -31990,7 +31990,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="777" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>453488710</v>
       </c>
@@ -32007,7 +32007,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="778" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>362180408</v>
       </c>
@@ -32024,7 +32024,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="779" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>456779300</v>
       </c>
@@ -32041,7 +32041,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="780" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>506747153</v>
       </c>
@@ -32058,7 +32058,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="781" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>367323166</v>
       </c>
@@ -32075,7 +32075,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="782" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>451283862</v>
       </c>
@@ -32092,7 +32092,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="783" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>573158565</v>
       </c>
@@ -32109,7 +32109,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="784" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>528416850</v>
       </c>
@@ -32126,7 +32126,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="785" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>488547716</v>
       </c>
@@ -32143,7 +32143,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="786" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>358705456</v>
       </c>
@@ -32160,7 +32160,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="787" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>410991093</v>
       </c>
@@ -32177,7 +32177,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="788" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>324592302</v>
       </c>
@@ -32194,7 +32194,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="789" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>469144586</v>
       </c>
@@ -32211,7 +32211,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="790" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>440185326</v>
       </c>
@@ -32228,7 +32228,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="791" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>516698881</v>
       </c>
@@ -32245,7 +32245,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="792" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>561883247</v>
       </c>
@@ -32262,7 +32262,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="793" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>297860557</v>
       </c>
@@ -32279,7 +32279,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="794" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>379353549</v>
       </c>
@@ -32296,7 +32296,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="795" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>409598312</v>
       </c>
@@ -32313,7 +32313,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="796" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>447603364</v>
       </c>
@@ -32330,7 +32330,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="797" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>593510472</v>
       </c>
@@ -32347,7 +32347,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="798" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>506258830</v>
       </c>
@@ -32364,7 +32364,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="799" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>292495841</v>
       </c>
@@ -32381,7 +32381,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="800" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>555053729</v>
       </c>
@@ -32398,7 +32398,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="801" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>420727633</v>
       </c>
